--- a/Doc/Plannings/PlanningRéel.xlsx
+++ b/Doc/Plannings/PlanningRéel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco.Rdrgs2\Code\TPI_Marco_Rodrigues\NimRL\Doc\Plannings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7B5EC4-A5FF-4E5F-90F4-CD3DEEC477BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F453F4B-75DE-41AF-A876-A5A300074AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="6075" windowWidth="19440" windowHeight="15000" xr2:uid="{0EA389DD-0290-4413-B424-8C6FA9104819}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0EA389DD-0290-4413-B424-8C6FA9104819}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -965,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0DD096-C7E5-4D09-9D9A-C3D700D57C79}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1409,7 +1409,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1437,7 +1437,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1464,7 +1464,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1494,7 +1494,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1950,8 +1950,8 @@
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -1977,8 +1977,8 @@
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -2032,7 +2032,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="25"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="H40" s="25"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>

--- a/Doc/Plannings/PlanningRéel.xlsx
+++ b/Doc/Plannings/PlanningRéel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco.Rdrgs2\Code\TPI_Marco_Rodrigues\NimRL\Doc\Plannings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F453F4B-75DE-41AF-A876-A5A300074AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3701B2EE-4FE4-4B5A-897D-A88157B7C50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0EA389DD-0290-4413-B424-8C6FA9104819}"/>
+    <workbookView xWindow="38280" yWindow="6075" windowWidth="19440" windowHeight="15000" xr2:uid="{0EA389DD-0290-4413-B424-8C6FA9104819}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -965,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0DD096-C7E5-4D09-9D9A-C3D700D57C79}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1522,7 +1522,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="I21" s="25"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="11"/>
@@ -1549,7 +1549,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="25"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="11"/>
@@ -1577,7 +1577,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="J23" s="25"/>
       <c r="K23" s="2"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
@@ -1604,7 +1604,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="J24" s="25"/>
       <c r="K24" s="2"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
@@ -1631,7 +1631,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="J25" s="25"/>
       <c r="K25" s="2"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
@@ -1952,8 +1952,8 @@
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
       <c r="H37" s="25"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
       <c r="K37" s="2"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
@@ -1979,8 +1979,8 @@
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
       <c r="K38" s="2"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
@@ -2034,7 +2034,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="25"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="J40" s="25"/>
       <c r="K40" s="2"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>

--- a/Doc/Plannings/PlanningRéel.xlsx
+++ b/Doc/Plannings/PlanningRéel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco.Rdrgs2\Code\TPI_Marco_Rodrigues\NimRL\Doc\Plannings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3701B2EE-4FE4-4B5A-897D-A88157B7C50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74171AC8-65BF-4260-A8CB-273DB70953F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="6075" windowWidth="19440" windowHeight="15000" xr2:uid="{0EA389DD-0290-4413-B424-8C6FA9104819}"/>
   </bookViews>
@@ -581,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -641,6 +641,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -965,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0DD096-C7E5-4D09-9D9A-C3D700D57C79}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1631,7 +1632,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="25"/>
+      <c r="J25" s="27"/>
       <c r="K25" s="2"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
@@ -1659,7 +1660,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="K26" s="27"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -1686,7 +1687,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="K27" s="27"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
@@ -1713,7 +1714,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="K28" s="27"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -1741,7 +1742,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="11"/>
+      <c r="L29" s="35"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
@@ -1927,7 +1928,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="K36" s="25"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
@@ -1954,8 +1955,8 @@
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="11"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="35"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
@@ -1981,8 +1982,8 @@
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="11"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="35"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
@@ -2036,7 +2037,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="25"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="11"/>
+      <c r="L40" s="35"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>

--- a/Doc/Plannings/PlanningRéel.xlsx
+++ b/Doc/Plannings/PlanningRéel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco.Rdrgs2\Code\TPI_Marco_Rodrigues\NimRL\Doc\Plannings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74171AC8-65BF-4260-A8CB-273DB70953F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DBE558-5D05-41A2-B1E4-51D5417BFA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="6075" windowWidth="19440" windowHeight="15000" xr2:uid="{0EA389DD-0290-4413-B424-8C6FA9104819}"/>
   </bookViews>
@@ -620,6 +620,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -641,7 +642,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0DD096-C7E5-4D09-9D9A-C3D700D57C79}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -980,107 +980,107 @@
   <sheetData>
     <row r="1" spans="2:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:24" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
     </row>
     <row r="3" spans="2:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="30"/>
     </row>
     <row r="4" spans="2:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="33">
         <v>1</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34">
         <v>2</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33">
+      <c r="F4" s="34"/>
+      <c r="G4" s="34">
         <v>3</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33">
+      <c r="H4" s="34"/>
+      <c r="I4" s="34">
         <v>4</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33">
+      <c r="J4" s="34"/>
+      <c r="K4" s="34">
         <v>5</v>
       </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33">
+      <c r="L4" s="34"/>
+      <c r="M4" s="34">
         <v>6</v>
       </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33">
+      <c r="N4" s="34"/>
+      <c r="O4" s="34">
         <v>7</v>
       </c>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33">
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34">
         <v>8</v>
       </c>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33">
+      <c r="R4" s="34"/>
+      <c r="S4" s="34">
         <v>9</v>
       </c>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33">
+      <c r="T4" s="34"/>
+      <c r="U4" s="34">
         <v>10</v>
       </c>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33">
+      <c r="V4" s="34"/>
+      <c r="W4" s="34">
         <v>11</v>
       </c>
-      <c r="X4" s="34"/>
+      <c r="X4" s="35"/>
     </row>
     <row r="5" spans="2:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
@@ -1742,9 +1742,9 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
@@ -1956,9 +1956,9 @@
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
@@ -1983,9 +1983,9 @@
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
@@ -2037,9 +2037,9 @@
       <c r="I40" s="2"/>
       <c r="J40" s="25"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="35"/>
+      <c r="L40" s="28"/>
       <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
+      <c r="N40" s="28"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>

--- a/Doc/Plannings/PlanningRéel.xlsx
+++ b/Doc/Plannings/PlanningRéel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco.Rdrgs2\Code\TPI_Marco_Rodrigues\NimRL\Doc\Plannings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DBE558-5D05-41A2-B1E4-51D5417BFA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B290F013-B7EA-402D-A93E-149320284B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="6075" windowWidth="19440" windowHeight="15000" xr2:uid="{0EA389DD-0290-4413-B424-8C6FA9104819}"/>
   </bookViews>
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0DD096-C7E5-4D09-9D9A-C3D700D57C79}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1773,7 +1773,7 @@
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
+      <c r="P30" s="28"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
@@ -1959,8 +1959,8 @@
       <c r="L37" s="28"/>
       <c r="M37" s="28"/>
       <c r="N37" s="28"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
@@ -1986,8 +1986,8 @@
       <c r="L38" s="28"/>
       <c r="M38" s="28"/>
       <c r="N38" s="28"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
@@ -2041,7 +2041,7 @@
       <c r="M40" s="11"/>
       <c r="N40" s="28"/>
       <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
+      <c r="P40" s="28"/>
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>

--- a/Doc/Plannings/PlanningRéel.xlsx
+++ b/Doc/Plannings/PlanningRéel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco.Rdrgs2\Code\TPI_Marco_Rodrigues\NimRL\Doc\Plannings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B290F013-B7EA-402D-A93E-149320284B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251764C7-B350-4969-888C-9DE7F660E8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="6075" windowWidth="19440" windowHeight="15000" xr2:uid="{0EA389DD-0290-4413-B424-8C6FA9104819}"/>
   </bookViews>
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0DD096-C7E5-4D09-9D9A-C3D700D57C79}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1774,7 +1774,7 @@
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="28"/>
-      <c r="Q30" s="11"/>
+      <c r="Q30" s="28"/>
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
@@ -1802,7 +1802,7 @@
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
+      <c r="R31" s="28"/>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
@@ -1828,7 +1828,7 @@
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="28"/>
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
@@ -1855,7 +1855,7 @@
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
+      <c r="Q33" s="28"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
@@ -1961,8 +1961,8 @@
       <c r="N37" s="28"/>
       <c r="O37" s="28"/>
       <c r="P37" s="28"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
       <c r="U37" s="11"/>
@@ -1988,8 +1988,8 @@
       <c r="N38" s="28"/>
       <c r="O38" s="28"/>
       <c r="P38" s="28"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
       <c r="U38" s="11"/>
@@ -2043,7 +2043,7 @@
       <c r="O40" s="11"/>
       <c r="P40" s="28"/>
       <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
+      <c r="R40" s="28"/>
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
       <c r="U40" s="11"/>
